--- a/OrthoSquare/temp/Enquiry_Master.xlsx
+++ b/OrthoSquare/temp/Enquiry_Master.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MEhul Rana\Desktop\Ortho\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MEhul Rana\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="19935" windowHeight="8130"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7320"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Clinic</t>
   </si>
@@ -55,15 +55,12 @@
   </si>
   <si>
     <t>mehul1</t>
-  </si>
-  <si>
-    <t>Borivali East1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -422,7 +419,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -464,8 +461,8 @@
       <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
-        <v>12</v>
+      <c r="B2">
+        <v>32</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>

--- a/OrthoSquare/temp/Enquiry_Master.xlsx
+++ b/OrthoSquare/temp/Enquiry_Master.xlsx
@@ -1,28 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20380"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MEhul Rana\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B86E2A-4AA5-48DA-A18A-531FD0CE8F2F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7320"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>Clinic</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>FirstName</t>
   </si>
@@ -51,16 +50,34 @@
     <t>aaaa</t>
   </si>
   <si>
-    <t>Dental Implant</t>
-  </si>
-  <si>
-    <t>mehul1</t>
+    <t xml:space="preserve">Mehul </t>
+  </si>
+  <si>
+    <t>Enquiry Source</t>
+  </si>
+  <si>
+    <t>Facebook</t>
+  </si>
+  <si>
+    <t>Google</t>
+  </si>
+  <si>
+    <t>Instagram</t>
+  </si>
+  <si>
+    <t>Practo</t>
+  </si>
+  <si>
+    <t>Telecalling</t>
+  </si>
+  <si>
+    <t>Reference</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -205,6 +222,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -240,6 +274,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -415,11 +466,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -429,62 +480,125 @@
     <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2">
-        <v>32</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="E2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2">
+        <v>90008854785</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" t="s">
         <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2">
-        <v>9015884577</v>
-      </c>
-      <c r="G2" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
+          <x14:formula1>
+            <xm:f>Sheet2!$I$13:$I$18</xm:f>
+          </x14:formula1>
+          <xm:sqref>H2</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="I13:I18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P20" sqref="P20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="13" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>